--- a/baza.xlsx
+++ b/baza.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="hajm" sheetId="2" r:id="rId1"/>
+    <sheet name="ulush" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Qurilish</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>hudud</t>
   </si>
@@ -48,6 +46,45 @@
       </rPr>
       <t xml:space="preserve"> ulushi</t>
     </r>
+  </si>
+  <si>
+    <t>ЯИМ</t>
+  </si>
+  <si>
+    <t>Саноат</t>
+  </si>
+  <si>
+    <t>Қишлоқ хўжалиги</t>
+  </si>
+  <si>
+    <t>Инвестиция</t>
+  </si>
+  <si>
+    <t>Қурилиш</t>
+  </si>
+  <si>
+    <t>Чакана савдо</t>
+  </si>
+  <si>
+    <t>Хизматлар</t>
+  </si>
+  <si>
+    <t>Юк ташиш</t>
+  </si>
+  <si>
+    <t>Юк айланмаси</t>
+  </si>
+  <si>
+    <t>Йўловчи ташиш</t>
+  </si>
+  <si>
+    <t>Йўловчи айланмаси</t>
+  </si>
+  <si>
+    <t>Экспорт</t>
+  </si>
+  <si>
+    <t>Импорт</t>
   </si>
 </sst>
 </file>
@@ -97,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -120,24 +157,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,429 +629,4135 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="15"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>2023</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2024</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>2025</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="E3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="T3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="V3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1700</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>70.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>80.400000000000006</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <v>90.3</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="E4" s="7">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F4" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>86.9</v>
+      </c>
+      <c r="H4" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>66.2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>53.8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="L4" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>92.8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O4" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="P4" s="9">
+        <v>83.3</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>78.8</v>
+      </c>
+      <c r="T4" s="7">
+        <v>87.9</v>
+      </c>
+      <c r="U4" s="8">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="V4" s="9">
+        <v>53.9</v>
+      </c>
+      <c r="W4" s="7">
+        <v>82.9</v>
+      </c>
+      <c r="X4" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>57.9</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>83.9</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>76.2</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>61.3</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>92.8</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>80.8</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>57.1</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>60.2</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>70.8</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>90.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1703</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>98</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>70.400000000000006</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <v>66.2</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="E5" s="7">
+        <v>96.4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="I5" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>90.7</v>
+      </c>
+      <c r="K5" s="7">
+        <v>56</v>
+      </c>
+      <c r="L5" s="8">
+        <v>66</v>
+      </c>
+      <c r="M5" s="9">
+        <v>86.6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="O5" s="8">
+        <v>52</v>
+      </c>
+      <c r="P5" s="9">
+        <v>62.7</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>69.3</v>
+      </c>
+      <c r="R5" s="8">
+        <v>58.3</v>
+      </c>
+      <c r="S5" s="9">
+        <v>71.2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>53</v>
+      </c>
+      <c r="U5" s="8">
+        <v>61.7</v>
+      </c>
+      <c r="V5" s="9">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="W5" s="7">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="X5" s="8">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>78.7</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>71.2</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>69.3</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>84.2</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>53.7</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>91.7</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>59.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>1706</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>66.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <v>88.4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <v>90.9</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="E6" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>69.3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H6" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>51.6</v>
+      </c>
+      <c r="K6" s="7">
+        <v>94.8</v>
+      </c>
+      <c r="L6" s="8">
+        <v>82.3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>52</v>
+      </c>
+      <c r="O6" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="P6" s="9">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>93.7</v>
+      </c>
+      <c r="R6" s="8">
+        <v>85.4</v>
+      </c>
+      <c r="S6" s="9">
+        <v>70.8</v>
+      </c>
+      <c r="T6" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="V6" s="9">
+        <v>78.2</v>
+      </c>
+      <c r="W6" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>99.3</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>85.4</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>73.8</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>58.4</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>89.9</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>71.5</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>76</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>59.6</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>88.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>1708</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>50</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="8">
         <v>86.7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>59.5</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="E7" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F7" s="8">
+        <v>85</v>
+      </c>
+      <c r="G7" s="9">
+        <v>87.2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>57.9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>92.4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="L7" s="8">
+        <v>83</v>
+      </c>
+      <c r="M7" s="9">
+        <v>90.4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="O7" s="8">
+        <v>76</v>
+      </c>
+      <c r="P7" s="9">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="S7" s="9">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="T7" s="7">
+        <v>79.5</v>
+      </c>
+      <c r="U7" s="8">
+        <v>52</v>
+      </c>
+      <c r="V7" s="9">
+        <v>76.3</v>
+      </c>
+      <c r="W7" s="7">
+        <v>53.1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>92.9</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>81.5</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>96.7</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>76.8</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>84.3</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>63.6</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>96.1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>70.7</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>93.8</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>63.3</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>56.9</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>64.8</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>96.2</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>96</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>1710</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="7">
         <v>82.3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <v>54.9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <v>68</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="E8" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>93</v>
+      </c>
+      <c r="G8" s="9">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="J8" s="9">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K8" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="L8" s="8">
+        <v>98</v>
+      </c>
+      <c r="M8" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="O8" s="8">
+        <v>58.2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="R8" s="8">
+        <v>51.8</v>
+      </c>
+      <c r="S8" s="9">
+        <v>51.2</v>
+      </c>
+      <c r="T8" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="U8" s="8">
+        <v>98</v>
+      </c>
+      <c r="V8" s="9">
+        <v>87.1</v>
+      </c>
+      <c r="W8" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="X8" s="8">
+        <v>88.1</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>56.8</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>54.9</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>67</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>91.7</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>68.7</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>70.3</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>74.7</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>59.1</v>
+      </c>
+      <c r="AN8" s="9">
+        <v>95</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>1712</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>92.9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <v>83.1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <v>87.8</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="E9" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>53.1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>91.8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>76.2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>50.8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>97.4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>74.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="M9" s="9">
+        <v>62.1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>82.7</v>
+      </c>
+      <c r="P9" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>71.5</v>
+      </c>
+      <c r="S9" s="9">
+        <v>86.3</v>
+      </c>
+      <c r="T9" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="U9" s="8">
+        <v>96.4</v>
+      </c>
+      <c r="V9" s="9">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="W9" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="X9" s="8">
+        <v>97.2</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>78</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>84.1</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>95</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>59.3</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>60.3</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>95.3</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>50.8</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>91.1</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>85.2</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>99.1</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>63.4</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>85.2</v>
+      </c>
+      <c r="AN9" s="9">
+        <v>84.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1714</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="7">
         <v>63.2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <v>80.099999999999994</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <v>77.099999999999994</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="E10" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>89.3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>67.8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I10" s="8">
+        <v>67</v>
+      </c>
+      <c r="J10" s="9">
+        <v>93.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="L10" s="8">
+        <v>69</v>
+      </c>
+      <c r="M10" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>74.7</v>
+      </c>
+      <c r="O10" s="8">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="P10" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>84.9</v>
+      </c>
+      <c r="R10" s="8">
+        <v>86.8</v>
+      </c>
+      <c r="S10" s="9">
+        <v>70.2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>84.2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>62.1</v>
+      </c>
+      <c r="V10" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="W10" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="X10" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>66.7</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>88.7</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>67</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>99</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>58.1</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>90.7</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>98.8</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>90.9</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>61.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>1718</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>50.2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8">
         <v>70.8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <v>79</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="E11" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>87.4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>74.8</v>
+      </c>
+      <c r="K11" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>56.8</v>
+      </c>
+      <c r="M11" s="9">
+        <v>54.3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="P11" s="9">
+        <v>76.2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>95.1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="S11" s="9">
+        <v>73.8</v>
+      </c>
+      <c r="T11" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="U11" s="8">
+        <v>52.7</v>
+      </c>
+      <c r="V11" s="9">
+        <v>56.9</v>
+      </c>
+      <c r="W11" s="7">
+        <v>95.8</v>
+      </c>
+      <c r="X11" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>69.7</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>69.3</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>95.3</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>81.8</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>82.7</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>93.8</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>74.900000000000006</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1722</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>94.2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8">
         <v>57.1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <v>52.3</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="E12" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G12" s="9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H12" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="I12" s="8">
+        <v>89.6</v>
+      </c>
+      <c r="J12" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K12" s="7">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="L12" s="8">
+        <v>84.1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="N12" s="7">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O12" s="8">
+        <v>83.8</v>
+      </c>
+      <c r="P12" s="9">
+        <v>95.8</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>93</v>
+      </c>
+      <c r="R12" s="8">
+        <v>57</v>
+      </c>
+      <c r="S12" s="9">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="T12" s="7">
+        <v>91.2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="V12" s="9">
+        <v>84.6</v>
+      </c>
+      <c r="W12" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="X12" s="8">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>89.4</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>84.3</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>52.1</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>74.2</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>54.9</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>91.3</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>54</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>83.4</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>63.2</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>81.8</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>57.6</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>93.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1724</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="7">
         <v>88.1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8">
         <v>82.1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <v>66</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="E13" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G13" s="9">
+        <v>58.4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>55</v>
+      </c>
+      <c r="I13" s="8">
+        <v>66.3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="K13" s="7">
+        <v>91.2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>60.2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>64.2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>98.9</v>
+      </c>
+      <c r="O13" s="8">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="P13" s="9">
+        <v>50.7</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="R13" s="8">
+        <v>98.8</v>
+      </c>
+      <c r="S13" s="9">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="T13" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="U13" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="V13" s="9">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W13" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="X13" s="8">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>70.3</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>73.7</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>58.7</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>62.6</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>98.6</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>57.7</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>75.7</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>71.8</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>87.9</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1726</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="7">
         <v>70.3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="8">
         <v>56</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <v>64.3</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="E14" s="7">
+        <v>85.2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>59.7</v>
+      </c>
+      <c r="G14" s="9">
+        <v>97.8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I14" s="8">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="J14" s="9">
+        <v>92.6</v>
+      </c>
+      <c r="K14" s="7">
+        <v>95</v>
+      </c>
+      <c r="L14" s="8">
+        <v>62.6</v>
+      </c>
+      <c r="M14" s="9">
+        <v>98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>92.4</v>
+      </c>
+      <c r="O14" s="8">
+        <v>50.5</v>
+      </c>
+      <c r="P14" s="9">
+        <v>91.9</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="R14" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="S14" s="9">
+        <v>77.8</v>
+      </c>
+      <c r="T14" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="U14" s="8">
+        <v>94.2</v>
+      </c>
+      <c r="V14" s="9">
+        <v>99</v>
+      </c>
+      <c r="W14" s="7">
+        <v>90.2</v>
+      </c>
+      <c r="X14" s="8">
+        <v>72.3</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>85.5</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>84.3</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>70.2</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>85</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>69</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>70.3</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>99.2</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>91.8</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>52.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>1727</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="7">
         <v>91.5</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <v>83.9</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <v>79.2</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="E15" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>57.8</v>
+      </c>
+      <c r="G15" s="9">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7">
+        <v>84.2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>99.2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>81</v>
+      </c>
+      <c r="K15" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="L15" s="8">
+        <v>55.5</v>
+      </c>
+      <c r="M15" s="9">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N15" s="7">
+        <v>78.5</v>
+      </c>
+      <c r="O15" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="P15" s="9">
+        <v>52.8</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="R15" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="S15" s="9">
+        <v>55.3</v>
+      </c>
+      <c r="T15" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="U15" s="8">
+        <v>68.8</v>
+      </c>
+      <c r="V15" s="9">
+        <v>56.8</v>
+      </c>
+      <c r="W15" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="X15" s="8">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>74.8</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>96.3</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>58.2</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>53</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>89.8</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>94.9</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>53.3</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>99.4</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>60.8</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>93.2</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>81.3</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AM15" s="8">
+        <v>55</v>
+      </c>
+      <c r="AN15" s="9">
+        <v>57.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>1730</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="7">
         <v>54.1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="8">
         <v>73.900000000000006</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="9">
         <v>71.2</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="E16" s="7">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F16" s="8">
+        <v>93.9</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60.1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>69.3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>91.1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>62.2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>84.8</v>
+      </c>
+      <c r="M16" s="9">
+        <v>88.5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>93</v>
+      </c>
+      <c r="O16" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="P16" s="9">
+        <v>71.3</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>81.3</v>
+      </c>
+      <c r="R16" s="8">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="S16" s="9">
+        <v>89.7</v>
+      </c>
+      <c r="T16" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="V16" s="9">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="W16" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="X16" s="8">
+        <v>84</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>87.9</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>90.8</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>83.6</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>59.9</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>98.4</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>65.3</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>98.7</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>90.3</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>89.4</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>89.1</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>76.3</v>
+      </c>
+      <c r="AM16" s="8">
+        <v>70.5</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>55.7</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1733</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="7">
         <v>69.400000000000006</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8">
         <v>87.4</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <v>55.5</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="E17" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="G17" s="9">
+        <v>81.8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>79.5</v>
+      </c>
+      <c r="I17" s="8">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J17" s="9">
+        <v>68.2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="L17" s="8">
+        <v>74</v>
+      </c>
+      <c r="M17" s="9">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="N17" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="O17" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="P17" s="9">
+        <v>99.9</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>98.9</v>
+      </c>
+      <c r="R17" s="8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="S17" s="9">
+        <v>83.1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>85.4</v>
+      </c>
+      <c r="U17" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="V17" s="9">
+        <v>73.8</v>
+      </c>
+      <c r="W17" s="7">
+        <v>81.2</v>
+      </c>
+      <c r="X17" s="8">
+        <v>50.5</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>71.3</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>99.8</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>94</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>99.4</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>73.2</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>75.2</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>69.8</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>97.2</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="AN17" s="9">
+        <v>70.599999999999994</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>1735</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="10">
         <v>95.8</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="11">
         <v>77.900000000000006</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <v>97</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="E18" s="10">
+        <v>56.6</v>
+      </c>
+      <c r="F18" s="11">
+        <v>86.8</v>
+      </c>
+      <c r="G18" s="12">
+        <v>65.7</v>
+      </c>
+      <c r="H18" s="10">
+        <v>64.3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>83.4</v>
+      </c>
+      <c r="J18" s="12">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="K18" s="10">
+        <v>71.5</v>
+      </c>
+      <c r="L18" s="11">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M18" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="N18" s="10">
+        <v>50.2</v>
+      </c>
+      <c r="O18" s="11">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P18" s="12">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>64.7</v>
+      </c>
+      <c r="R18" s="11">
+        <v>51.4</v>
+      </c>
+      <c r="S18" s="12">
+        <v>55.7</v>
+      </c>
+      <c r="T18" s="10">
+        <v>70.8</v>
+      </c>
+      <c r="U18" s="11">
+        <v>92.6</v>
+      </c>
+      <c r="V18" s="12">
+        <v>87.4</v>
+      </c>
+      <c r="W18" s="10">
+        <v>83.9</v>
+      </c>
+      <c r="X18" s="11">
+        <v>60.8</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>85.3</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>95.4</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>88.8</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>92</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>95</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>89.2</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>87.2</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>68.8</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>69.5</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>68.3</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>67.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="14">
+    <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AL2" sqref="AL2:AN18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="15"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="O3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="T3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="U3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="V3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="X3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>2025</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>2024</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B4" s="7">
+        <v>70.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="D4" s="9">
+        <v>90.3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F4" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>86.9</v>
+      </c>
+      <c r="H4" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>66.2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>53.8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="L4" s="8">
+        <v>95.5</v>
+      </c>
+      <c r="M4" s="9">
+        <v>92.8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O4" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="P4" s="9">
+        <v>83.3</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>78.8</v>
+      </c>
+      <c r="T4" s="7">
+        <v>87.9</v>
+      </c>
+      <c r="U4" s="8">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="V4" s="9">
+        <v>53.9</v>
+      </c>
+      <c r="W4" s="7">
+        <v>82.9</v>
+      </c>
+      <c r="X4" s="8">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>57.9</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>83.9</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>76.2</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>61.3</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>57</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>92.8</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>72</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>80.8</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>57.1</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>60.2</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>70.8</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1703</v>
+      </c>
+      <c r="B5" s="7">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D5" s="9">
+        <v>66.2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>96.4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="I5" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>90.7</v>
+      </c>
+      <c r="K5" s="7">
+        <v>56</v>
+      </c>
+      <c r="L5" s="8">
+        <v>66</v>
+      </c>
+      <c r="M5" s="9">
+        <v>86.6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>67.8</v>
+      </c>
+      <c r="O5" s="8">
+        <v>52</v>
+      </c>
+      <c r="P5" s="9">
+        <v>62.7</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>69.3</v>
+      </c>
+      <c r="R5" s="8">
+        <v>58.3</v>
+      </c>
+      <c r="S5" s="9">
+        <v>71.2</v>
+      </c>
+      <c r="T5" s="7">
+        <v>53</v>
+      </c>
+      <c r="U5" s="8">
+        <v>61.7</v>
+      </c>
+      <c r="V5" s="9">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="W5" s="7">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="X5" s="8">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>78.7</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>58.3</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>71.2</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>69.3</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>80.2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>84.2</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>53.7</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>91.7</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1706</v>
+      </c>
+      <c r="B6" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>88.4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>90.9</v>
+      </c>
+      <c r="E6" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>69.3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H6" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>51.6</v>
+      </c>
+      <c r="K6" s="7">
+        <v>94.8</v>
+      </c>
+      <c r="L6" s="8">
+        <v>82.3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>52</v>
+      </c>
+      <c r="O6" s="8">
+        <v>94.5</v>
+      </c>
+      <c r="P6" s="9">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>93.7</v>
+      </c>
+      <c r="R6" s="8">
+        <v>85.4</v>
+      </c>
+      <c r="S6" s="9">
+        <v>70.8</v>
+      </c>
+      <c r="T6" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="U6" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="V6" s="9">
+        <v>78.2</v>
+      </c>
+      <c r="W6" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="X6" s="8">
+        <v>57.3</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>99.3</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>85.4</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>73.8</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>72</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>58.4</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>89.9</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>71.5</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>76</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>59.6</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1708</v>
+      </c>
+      <c r="B7" s="7">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>86.7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>59.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F7" s="8">
+        <v>85</v>
+      </c>
+      <c r="G7" s="9">
+        <v>87.2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>60.1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>57.9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>92.4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="L7" s="8">
+        <v>83</v>
+      </c>
+      <c r="M7" s="9">
+        <v>90.4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="O7" s="8">
+        <v>76</v>
+      </c>
+      <c r="P7" s="9">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>52.6</v>
+      </c>
+      <c r="R7" s="8">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="S7" s="9">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="T7" s="7">
+        <v>79.5</v>
+      </c>
+      <c r="U7" s="8">
+        <v>52</v>
+      </c>
+      <c r="V7" s="9">
+        <v>76.3</v>
+      </c>
+      <c r="W7" s="7">
+        <v>53.1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>92.9</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>81.5</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>96.7</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>76.8</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>84.3</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>63.6</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>96.1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>70.7</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>99.5</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>93.8</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>63.3</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>56.9</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>64.8</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>96.2</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1710</v>
+      </c>
+      <c r="B8" s="7">
+        <v>82.3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>54.9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7">
+        <v>55.8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>93</v>
+      </c>
+      <c r="G8" s="9">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="I8" s="8">
+        <v>99.6</v>
+      </c>
+      <c r="J8" s="9">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K8" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="L8" s="8">
+        <v>98</v>
+      </c>
+      <c r="M8" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="O8" s="8">
+        <v>58.2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="R8" s="8">
+        <v>51.8</v>
+      </c>
+      <c r="S8" s="9">
+        <v>51.2</v>
+      </c>
+      <c r="T8" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="U8" s="8">
+        <v>98</v>
+      </c>
+      <c r="V8" s="9">
+        <v>87.1</v>
+      </c>
+      <c r="W8" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="X8" s="8">
+        <v>88.1</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>56.8</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>54.9</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>67</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>91.7</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>68.7</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>52.4</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>70.3</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>74.7</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>59.1</v>
+      </c>
+      <c r="AN8" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1712</v>
+      </c>
+      <c r="B9" s="7">
+        <v>92.9</v>
+      </c>
+      <c r="C9" s="8">
+        <v>83.1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>87.8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>53.1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>91.8</v>
+      </c>
+      <c r="H9" s="7">
+        <v>76.2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>50.8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>97.4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>74.5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="M9" s="9">
+        <v>62.1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>82.7</v>
+      </c>
+      <c r="P9" s="9">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>71.5</v>
+      </c>
+      <c r="S9" s="9">
+        <v>86.3</v>
+      </c>
+      <c r="T9" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="U9" s="8">
+        <v>96.4</v>
+      </c>
+      <c r="V9" s="9">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="W9" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="X9" s="8">
+        <v>97.2</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>78</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>84.1</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>72.8</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>95</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>59.3</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>60.3</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>95.3</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>50.8</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>91.1</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>85.2</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>99.1</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>63.4</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>85.2</v>
+      </c>
+      <c r="AN9" s="9">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1714</v>
+      </c>
+      <c r="B10" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D10" s="9">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E10" s="7">
+        <v>57.6</v>
+      </c>
+      <c r="F10" s="8">
+        <v>89.3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>67.8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I10" s="8">
+        <v>67</v>
+      </c>
+      <c r="J10" s="9">
+        <v>93.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="L10" s="8">
+        <v>69</v>
+      </c>
+      <c r="M10" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>74.7</v>
+      </c>
+      <c r="O10" s="8">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="P10" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>84.9</v>
+      </c>
+      <c r="R10" s="8">
+        <v>86.8</v>
+      </c>
+      <c r="S10" s="9">
+        <v>70.2</v>
+      </c>
+      <c r="T10" s="7">
+        <v>84.2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>62.1</v>
+      </c>
+      <c r="V10" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="W10" s="7">
+        <v>63.6</v>
+      </c>
+      <c r="X10" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>94.9</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>66.7</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>88.7</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>67</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>99</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>58.1</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>61.6</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>90.7</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>50.7</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>61.4</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>98.8</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>90.9</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1718</v>
+      </c>
+      <c r="B11" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>70.8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7">
+        <v>62.3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>53</v>
+      </c>
+      <c r="H11" s="7">
+        <v>87.4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>74.8</v>
+      </c>
+      <c r="K11" s="7">
+        <v>57.2</v>
+      </c>
+      <c r="L11" s="8">
+        <v>56.8</v>
+      </c>
+      <c r="M11" s="9">
+        <v>54.3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>62.5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="P11" s="9">
+        <v>76.2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>95.1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>74.8</v>
+      </c>
+      <c r="S11" s="9">
+        <v>73.8</v>
+      </c>
+      <c r="T11" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="U11" s="8">
+        <v>52.7</v>
+      </c>
+      <c r="V11" s="9">
+        <v>56.9</v>
+      </c>
+      <c r="W11" s="7">
+        <v>95.8</v>
+      </c>
+      <c r="X11" s="8">
+        <v>83.5</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>69.7</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>53.2</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>69.3</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>95.3</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>81.8</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>82.7</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>93.8</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1722</v>
+      </c>
+      <c r="B12" s="7">
+        <v>94.2</v>
+      </c>
+      <c r="C12" s="8">
+        <v>57.1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>52.3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G12" s="9">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="H12" s="7">
+        <v>62.8</v>
+      </c>
+      <c r="I12" s="8">
+        <v>89.6</v>
+      </c>
+      <c r="J12" s="9">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="K12" s="7">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="L12" s="8">
+        <v>84.1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="N12" s="7">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O12" s="8">
+        <v>83.8</v>
+      </c>
+      <c r="P12" s="9">
+        <v>95.8</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>93</v>
+      </c>
+      <c r="R12" s="8">
+        <v>57</v>
+      </c>
+      <c r="S12" s="9">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="T12" s="7">
+        <v>91.2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="V12" s="9">
+        <v>84.6</v>
+      </c>
+      <c r="W12" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="X12" s="8">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>89.4</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>84.3</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>52.1</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>63</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>74.2</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>54.9</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>91.3</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>54</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>83.4</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>63.2</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>81.8</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>57.6</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1724</v>
+      </c>
+      <c r="B13" s="7">
+        <v>88.1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>82.1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>66</v>
+      </c>
+      <c r="E13" s="7">
+        <v>85.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G13" s="9">
+        <v>58.4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>55</v>
+      </c>
+      <c r="I13" s="8">
+        <v>66.3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="K13" s="7">
+        <v>91.2</v>
+      </c>
+      <c r="L13" s="8">
+        <v>60.2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>64.2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>98.9</v>
+      </c>
+      <c r="O13" s="8">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="P13" s="9">
+        <v>50.7</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>63.2</v>
+      </c>
+      <c r="R13" s="8">
+        <v>98.8</v>
+      </c>
+      <c r="S13" s="9">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="T13" s="7">
+        <v>63.1</v>
+      </c>
+      <c r="U13" s="8">
+        <v>97.5</v>
+      </c>
+      <c r="V13" s="9">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="W13" s="7">
+        <v>90.5</v>
+      </c>
+      <c r="X13" s="8">
+        <v>76</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>70.3</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>73.7</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>52.3</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>58.7</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>62.6</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>98.6</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>57.7</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>75.7</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>71.8</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>73.3</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>59.4</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1726</v>
+      </c>
+      <c r="B14" s="7">
+        <v>70.3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9">
+        <v>64.3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>85.2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>59.7</v>
+      </c>
+      <c r="G14" s="9">
+        <v>97.8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="I14" s="8">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="J14" s="9">
+        <v>92.6</v>
+      </c>
+      <c r="K14" s="7">
+        <v>95</v>
+      </c>
+      <c r="L14" s="8">
+        <v>62.6</v>
+      </c>
+      <c r="M14" s="9">
+        <v>98</v>
+      </c>
+      <c r="N14" s="7">
+        <v>92.4</v>
+      </c>
+      <c r="O14" s="8">
+        <v>50.5</v>
+      </c>
+      <c r="P14" s="9">
+        <v>91.9</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>99.1</v>
+      </c>
+      <c r="R14" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="S14" s="9">
+        <v>77.8</v>
+      </c>
+      <c r="T14" s="7">
+        <v>51.2</v>
+      </c>
+      <c r="U14" s="8">
+        <v>94.2</v>
+      </c>
+      <c r="V14" s="9">
+        <v>99</v>
+      </c>
+      <c r="W14" s="7">
+        <v>90.2</v>
+      </c>
+      <c r="X14" s="8">
+        <v>72.3</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>68.7</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>85.5</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>84.3</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>70.2</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>85</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>69</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>50.5</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>70.3</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>99.2</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>91.8</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1727</v>
+      </c>
+      <c r="B15" s="7">
+        <v>91.5</v>
+      </c>
+      <c r="C15" s="8">
+        <v>83.9</v>
+      </c>
+      <c r="D15" s="9">
+        <v>79.2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>97.2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>57.8</v>
+      </c>
+      <c r="G15" s="9">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7">
+        <v>84.2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>99.2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>81</v>
+      </c>
+      <c r="K15" s="7">
+        <v>60.5</v>
+      </c>
+      <c r="L15" s="8">
+        <v>55.5</v>
+      </c>
+      <c r="M15" s="9">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N15" s="7">
+        <v>78.5</v>
+      </c>
+      <c r="O15" s="8">
+        <v>83.6</v>
+      </c>
+      <c r="P15" s="9">
+        <v>52.8</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="R15" s="8">
+        <v>97.6</v>
+      </c>
+      <c r="S15" s="9">
+        <v>55.3</v>
+      </c>
+      <c r="T15" s="7">
+        <v>99.7</v>
+      </c>
+      <c r="U15" s="8">
+        <v>68.8</v>
+      </c>
+      <c r="V15" s="9">
+        <v>56.8</v>
+      </c>
+      <c r="W15" s="7">
+        <v>87.2</v>
+      </c>
+      <c r="X15" s="8">
+        <v>76</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>74.8</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>96.3</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>58.2</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>53</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>89.8</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>94.9</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>53.3</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>99.4</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>60.8</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>93.2</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>81.3</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="AM15" s="8">
+        <v>55</v>
+      </c>
+      <c r="AN15" s="9">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1730</v>
+      </c>
+      <c r="B16" s="7">
+        <v>54.1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D16" s="9">
+        <v>71.2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F16" s="8">
+        <v>93.9</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60.1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>69.3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>91.1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>62.2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>84.8</v>
+      </c>
+      <c r="M16" s="9">
+        <v>88.5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>93</v>
+      </c>
+      <c r="O16" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="P16" s="9">
+        <v>71.3</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>81.3</v>
+      </c>
+      <c r="R16" s="8">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="S16" s="9">
+        <v>89.7</v>
+      </c>
+      <c r="T16" s="7">
+        <v>73.2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="V16" s="9">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="W16" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="X16" s="8">
+        <v>84</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>87.9</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>90.8</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>83.6</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>59.9</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>98.4</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>65.3</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>98.7</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>90.3</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>89.4</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>55.6</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>89.1</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>76.3</v>
+      </c>
+      <c r="AM16" s="8">
+        <v>70.5</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1733</v>
+      </c>
+      <c r="B17" s="7">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C17" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="D17" s="9">
+        <v>55.5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>51.8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="G17" s="9">
+        <v>81.8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>79.5</v>
+      </c>
+      <c r="I17" s="8">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="J17" s="9">
+        <v>68.2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="L17" s="8">
+        <v>74</v>
+      </c>
+      <c r="M17" s="9">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="N17" s="7">
+        <v>91.9</v>
+      </c>
+      <c r="O17" s="8">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="P17" s="9">
+        <v>99.9</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>98.9</v>
+      </c>
+      <c r="R17" s="8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="S17" s="9">
+        <v>83.1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>85.4</v>
+      </c>
+      <c r="U17" s="8">
+        <v>55.3</v>
+      </c>
+      <c r="V17" s="9">
+        <v>73.8</v>
+      </c>
+      <c r="W17" s="7">
+        <v>81.2</v>
+      </c>
+      <c r="X17" s="8">
+        <v>50.5</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>71.3</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>99.8</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>94</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>99.4</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>73.2</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>77.5</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>64.3</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>75.2</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>69.8</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>97.2</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>50</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>64.8</v>
+      </c>
+      <c r="AN17" s="9">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1735</v>
+      </c>
+      <c r="B18" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="C18" s="11">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D18" s="12">
+        <v>97</v>
+      </c>
+      <c r="E18" s="10">
+        <v>56.6</v>
+      </c>
+      <c r="F18" s="11">
+        <v>86.8</v>
+      </c>
+      <c r="G18" s="12">
+        <v>65.7</v>
+      </c>
+      <c r="H18" s="10">
+        <v>64.3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>83.4</v>
+      </c>
+      <c r="J18" s="12">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="K18" s="10">
+        <v>71.5</v>
+      </c>
+      <c r="L18" s="11">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M18" s="12">
+        <v>57.1</v>
+      </c>
+      <c r="N18" s="10">
+        <v>50.2</v>
+      </c>
+      <c r="O18" s="11">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P18" s="12">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>64.7</v>
+      </c>
+      <c r="R18" s="11">
+        <v>51.4</v>
+      </c>
+      <c r="S18" s="12">
+        <v>55.7</v>
+      </c>
+      <c r="T18" s="10">
+        <v>70.8</v>
+      </c>
+      <c r="U18" s="11">
+        <v>92.6</v>
+      </c>
+      <c r="V18" s="12">
+        <v>87.4</v>
+      </c>
+      <c r="W18" s="10">
+        <v>83.9</v>
+      </c>
+      <c r="X18" s="11">
+        <v>60.8</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>85.3</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>95.4</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>88.8</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>92</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>95</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>89.2</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AH18" s="12">
+        <v>87.2</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>91.6</v>
+      </c>
+      <c r="AK18" s="12">
+        <v>68.8</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>69.5</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>68.3</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>67.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
     <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
